--- a/natmiOut/OldD4/LR-pairs_lrc2p/F7-F3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/F7-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>F7</t>
   </si>
   <si>
     <t>F3</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83225194504149</v>
+        <v>1.911123333333333</v>
       </c>
       <c r="H2">
-        <v>1.83225194504149</v>
+        <v>5.73337</v>
       </c>
       <c r="I2">
-        <v>0.2174652865835734</v>
+        <v>0.1918165943533883</v>
       </c>
       <c r="J2">
-        <v>0.2174652865835734</v>
+        <v>0.1926922686284227</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>53.4215397201124</v>
+        <v>0.4264516666666667</v>
       </c>
       <c r="N2">
-        <v>53.4215397201124</v>
+        <v>1.279355</v>
       </c>
       <c r="O2">
-        <v>0.9485637706499539</v>
+        <v>0.00694733498901017</v>
       </c>
       <c r="P2">
-        <v>0.9485637706499539</v>
+        <v>0.007062248329551709</v>
       </c>
       <c r="Q2">
-        <v>97.88172005928716</v>
+        <v>0.8150017307055556</v>
       </c>
       <c r="R2">
-        <v>97.88172005928716</v>
+        <v>7.33501557635</v>
       </c>
       <c r="S2">
-        <v>0.2062796922271872</v>
+        <v>0.001332614137424065</v>
       </c>
       <c r="T2">
-        <v>0.2062796922271872</v>
+        <v>0.001360840652238608</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,309 +587,1487 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83225194504149</v>
+        <v>1.911123333333333</v>
       </c>
       <c r="H3">
-        <v>1.83225194504149</v>
+        <v>5.73337</v>
       </c>
       <c r="I3">
-        <v>0.2174652865835734</v>
+        <v>0.1918165943533883</v>
       </c>
       <c r="J3">
-        <v>0.2174652865835734</v>
+        <v>0.1926922686284227</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.89680320321902</v>
+        <v>56.94961366666666</v>
       </c>
       <c r="N3">
-        <v>2.89680320321902</v>
+        <v>170.848841</v>
       </c>
       <c r="O3">
-        <v>0.05143622935004609</v>
+        <v>0.9277676101716374</v>
       </c>
       <c r="P3">
-        <v>0.05143622935004609</v>
+        <v>0.9431134766801204</v>
       </c>
       <c r="Q3">
-        <v>5.307673303500469</v>
+        <v>108.8377355026855</v>
       </c>
       <c r="R3">
-        <v>5.307673303500469</v>
+        <v>979.5396195241699</v>
       </c>
       <c r="S3">
-        <v>0.01118559435638618</v>
+        <v>0.1779612233345055</v>
       </c>
       <c r="T3">
-        <v>0.01118559435638618</v>
+        <v>0.1817306753955314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.2937047388595</v>
+        <v>1.911123333333333</v>
       </c>
       <c r="H4">
-        <v>4.2937047388595</v>
+        <v>5.73337</v>
       </c>
       <c r="I4">
-        <v>0.5096088090222683</v>
+        <v>0.1918165943533883</v>
       </c>
       <c r="J4">
-        <v>0.5096088090222683</v>
+        <v>0.1926922686284227</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>53.4215397201124</v>
+        <v>0.3517459999999999</v>
       </c>
       <c r="N4">
-        <v>53.4215397201124</v>
+        <v>1.055238</v>
       </c>
       <c r="O4">
-        <v>0.9485637706499539</v>
+        <v>0.005730303066102147</v>
       </c>
       <c r="P4">
-        <v>0.9485637706499539</v>
+        <v>0.005825085924375552</v>
       </c>
       <c r="Q4">
-        <v>229.3763182534176</v>
+        <v>0.6722299880066666</v>
       </c>
       <c r="R4">
-        <v>229.3763182534176</v>
+        <v>6.050069892059999</v>
       </c>
       <c r="S4">
-        <v>0.4833964534425951</v>
+        <v>0.001099167218752493</v>
       </c>
       <c r="T4">
-        <v>0.4833964534425951</v>
+        <v>0.001122449021723418</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.2937047388595</v>
+        <v>1.911123333333333</v>
       </c>
       <c r="H5">
-        <v>4.2937047388595</v>
+        <v>5.73337</v>
       </c>
       <c r="I5">
-        <v>0.5096088090222683</v>
+        <v>0.1918165943533883</v>
       </c>
       <c r="J5">
-        <v>0.5096088090222683</v>
+        <v>0.1926922686284227</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.89680320321902</v>
+        <v>0.6592749999999999</v>
       </c>
       <c r="N5">
-        <v>2.89680320321902</v>
+        <v>1.977825</v>
       </c>
       <c r="O5">
-        <v>0.05143622935004609</v>
+        <v>0.01074026585634092</v>
       </c>
       <c r="P5">
-        <v>0.05143622935004609</v>
+        <v>0.01091791668645185</v>
       </c>
       <c r="Q5">
-        <v>12.43801764120489</v>
+        <v>1.259955835583333</v>
       </c>
       <c r="R5">
-        <v>12.43801764120489</v>
+        <v>11.33960252025</v>
       </c>
       <c r="S5">
-        <v>0.02621235557967323</v>
+        <v>0.002060161219013293</v>
       </c>
       <c r="T5">
-        <v>0.02621235557967323</v>
+        <v>0.002103798135008519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.29953491444357</v>
+        <v>1.911123333333333</v>
       </c>
       <c r="H6">
-        <v>2.29953491444357</v>
+        <v>5.73337</v>
       </c>
       <c r="I6">
-        <v>0.2729259043941581</v>
+        <v>0.1918165943533883</v>
       </c>
       <c r="J6">
-        <v>0.2729259043941581</v>
+        <v>0.1926922686284227</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.4215397201124</v>
+        <v>2.9964035</v>
       </c>
       <c r="N6">
-        <v>53.4215397201124</v>
+        <v>5.992807</v>
       </c>
       <c r="O6">
-        <v>0.9485637706499539</v>
+        <v>0.04881448591690938</v>
       </c>
       <c r="P6">
-        <v>0.9485637706499539</v>
+        <v>0.03308127237950044</v>
       </c>
       <c r="Q6">
-        <v>122.8446957697325</v>
+        <v>5.726496644931666</v>
       </c>
       <c r="R6">
-        <v>122.8446957697325</v>
+        <v>34.35897986959</v>
       </c>
       <c r="S6">
-        <v>0.2588876249801715</v>
+        <v>0.00936342844369299</v>
       </c>
       <c r="T6">
-        <v>0.2588876249801715</v>
+        <v>0.00637450542392072</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01216866666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.036506</v>
+      </c>
+      <c r="I7">
+        <v>0.001221350897197424</v>
+      </c>
+      <c r="J7">
+        <v>0.001226926564751481</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.4264516666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.279355</v>
+      </c>
+      <c r="O7">
+        <v>0.00694733498901017</v>
+      </c>
+      <c r="P7">
+        <v>0.007062248329551709</v>
+      </c>
+      <c r="Q7">
+        <v>0.005189348181111111</v>
+      </c>
+      <c r="R7">
+        <v>0.04670413363</v>
+      </c>
+      <c r="S7">
+        <v>8.485133821958624E-06</v>
+      </c>
+      <c r="T7">
+        <v>8.664860082398765E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.01216866666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.036506</v>
+      </c>
+      <c r="I8">
+        <v>0.001221350897197424</v>
+      </c>
+      <c r="J8">
+        <v>0.001226926564751481</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>56.94961366666666</v>
+      </c>
+      <c r="N8">
+        <v>170.848841</v>
+      </c>
+      <c r="O8">
+        <v>0.9277676101716374</v>
+      </c>
+      <c r="P8">
+        <v>0.9431134766801204</v>
+      </c>
+      <c r="Q8">
+        <v>0.6930008655051111</v>
+      </c>
+      <c r="R8">
+        <v>6.237007789545999</v>
+      </c>
+      <c r="S8">
+        <v>0.001133129803073839</v>
+      </c>
+      <c r="T8">
+        <v>0.001157130978113966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01216866666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.036506</v>
+      </c>
+      <c r="I9">
+        <v>0.001221350897197424</v>
+      </c>
+      <c r="J9">
+        <v>0.001226926564751481</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.3517459999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.055238</v>
+      </c>
+      <c r="O9">
+        <v>0.005730303066102147</v>
+      </c>
+      <c r="P9">
+        <v>0.005825085924375552</v>
+      </c>
+      <c r="Q9">
+        <v>0.004280279825333333</v>
+      </c>
+      <c r="R9">
+        <v>0.038522518428</v>
+      </c>
+      <c r="S9">
+        <v>6.998710790997004E-06</v>
+      </c>
+      <c r="T9">
+        <v>7.146952662576303E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01216866666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.036506</v>
+      </c>
+      <c r="I10">
+        <v>0.001221350897197424</v>
+      </c>
+      <c r="J10">
+        <v>0.001226926564751481</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.6592749999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.977825</v>
+      </c>
+      <c r="O10">
+        <v>0.01074026585634092</v>
+      </c>
+      <c r="P10">
+        <v>0.01091791668645185</v>
+      </c>
+      <c r="Q10">
+        <v>0.008022497716666665</v>
+      </c>
+      <c r="R10">
+        <v>0.07220247945</v>
+      </c>
+      <c r="S10">
+        <v>1.311763333978084E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.339548201435125E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.29953491444357</v>
-      </c>
-      <c r="H7">
-        <v>2.29953491444357</v>
-      </c>
-      <c r="I7">
-        <v>0.2729259043941581</v>
-      </c>
-      <c r="J7">
-        <v>0.2729259043941581</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.89680320321902</v>
-      </c>
-      <c r="N7">
-        <v>2.89680320321902</v>
-      </c>
-      <c r="O7">
-        <v>0.05143622935004609</v>
-      </c>
-      <c r="P7">
-        <v>0.05143622935004609</v>
-      </c>
-      <c r="Q7">
-        <v>6.661300106074109</v>
-      </c>
-      <c r="R7">
-        <v>6.661300106074109</v>
-      </c>
-      <c r="S7">
-        <v>0.01403827941398667</v>
-      </c>
-      <c r="T7">
-        <v>0.01403827941398667</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01216866666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.036506</v>
+      </c>
+      <c r="I11">
+        <v>0.001221350897197424</v>
+      </c>
+      <c r="J11">
+        <v>0.001226926564751481</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.9964035</v>
+      </c>
+      <c r="N11">
+        <v>5.992807</v>
+      </c>
+      <c r="O11">
+        <v>0.04881448591690938</v>
+      </c>
+      <c r="P11">
+        <v>0.03308127237950044</v>
+      </c>
+      <c r="Q11">
+        <v>0.03646223539033333</v>
+      </c>
+      <c r="R11">
+        <v>0.218773412342</v>
+      </c>
+      <c r="S11">
+        <v>5.961961617084826E-05</v>
+      </c>
+      <c r="T11">
+        <v>4.058829187818853E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.045820666666667</v>
+      </c>
+      <c r="H12">
+        <v>15.137462</v>
+      </c>
+      <c r="I12">
+        <v>0.5064414834545529</v>
+      </c>
+      <c r="J12">
+        <v>0.5087534720516104</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.4264516666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.279355</v>
+      </c>
+      <c r="O12">
+        <v>0.00694733498901017</v>
+      </c>
+      <c r="P12">
+        <v>0.007062248329551709</v>
+      </c>
+      <c r="Q12">
+        <v>2.151798633001111</v>
+      </c>
+      <c r="R12">
+        <v>19.36618769701</v>
+      </c>
+      <c r="S12">
+        <v>0.00351841863789003</v>
+      </c>
+      <c r="T12">
+        <v>0.003592943358150118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.045820666666667</v>
+      </c>
+      <c r="H13">
+        <v>15.137462</v>
+      </c>
+      <c r="I13">
+        <v>0.5064414834545529</v>
+      </c>
+      <c r="J13">
+        <v>0.5087534720516104</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>56.94961366666666</v>
+      </c>
+      <c r="N13">
+        <v>170.848841</v>
+      </c>
+      <c r="O13">
+        <v>0.9277676101716374</v>
+      </c>
+      <c r="P13">
+        <v>0.9431134766801204</v>
+      </c>
+      <c r="Q13">
+        <v>287.3575375979491</v>
+      </c>
+      <c r="R13">
+        <v>2586.217838381542</v>
+      </c>
+      <c r="S13">
+        <v>0.4698600047964094</v>
+      </c>
+      <c r="T13">
+        <v>0.4798122557996767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.045820666666667</v>
+      </c>
+      <c r="H14">
+        <v>15.137462</v>
+      </c>
+      <c r="I14">
+        <v>0.5064414834545529</v>
+      </c>
+      <c r="J14">
+        <v>0.5087534720516104</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3517459999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.055238</v>
+      </c>
+      <c r="O14">
+        <v>0.005730303066102147</v>
+      </c>
+      <c r="P14">
+        <v>0.005825085924375552</v>
+      </c>
+      <c r="Q14">
+        <v>1.774847236217333</v>
+      </c>
+      <c r="R14">
+        <v>15.973625125956</v>
+      </c>
+      <c r="S14">
+        <v>0.002902063185440944</v>
+      </c>
+      <c r="T14">
+        <v>0.002963532689025027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.045820666666667</v>
+      </c>
+      <c r="H15">
+        <v>15.137462</v>
+      </c>
+      <c r="I15">
+        <v>0.5064414834545529</v>
+      </c>
+      <c r="J15">
+        <v>0.5087534720516104</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.6592749999999999</v>
+      </c>
+      <c r="N15">
+        <v>1.977825</v>
+      </c>
+      <c r="O15">
+        <v>0.01074026585634092</v>
+      </c>
+      <c r="P15">
+        <v>0.01091791668645185</v>
+      </c>
+      <c r="Q15">
+        <v>3.326583420016667</v>
+      </c>
+      <c r="R15">
+        <v>29.93925078015</v>
+      </c>
+      <c r="S15">
+        <v>0.005439316172981579</v>
+      </c>
+      <c r="T15">
+        <v>0.005554528021802592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.045820666666667</v>
+      </c>
+      <c r="H16">
+        <v>15.137462</v>
+      </c>
+      <c r="I16">
+        <v>0.5064414834545529</v>
+      </c>
+      <c r="J16">
+        <v>0.5087534720516104</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.9964035</v>
+      </c>
+      <c r="N16">
+        <v>5.992807</v>
+      </c>
+      <c r="O16">
+        <v>0.04881448591690938</v>
+      </c>
+      <c r="P16">
+        <v>0.03308127237950044</v>
+      </c>
+      <c r="Q16">
+        <v>15.11931470597233</v>
+      </c>
+      <c r="R16">
+        <v>90.715888235834</v>
+      </c>
+      <c r="S16">
+        <v>0.02472168066183096</v>
+      </c>
+      <c r="T16">
+        <v>0.01683021218295589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.85834</v>
+      </c>
+      <c r="H17">
+        <v>8.57502</v>
+      </c>
+      <c r="I17">
+        <v>0.2868873163448707</v>
+      </c>
+      <c r="J17">
+        <v>0.2881970040890606</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.4264516666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.279355</v>
+      </c>
+      <c r="O17">
+        <v>0.00694733498901017</v>
+      </c>
+      <c r="P17">
+        <v>0.007062248329551709</v>
+      </c>
+      <c r="Q17">
+        <v>1.2189438569</v>
+      </c>
+      <c r="R17">
+        <v>10.9704947121</v>
+      </c>
+      <c r="S17">
+        <v>0.00199310229074595</v>
+      </c>
+      <c r="T17">
+        <v>0.002035318810709775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.85834</v>
+      </c>
+      <c r="H18">
+        <v>8.57502</v>
+      </c>
+      <c r="I18">
+        <v>0.2868873163448707</v>
+      </c>
+      <c r="J18">
+        <v>0.2881970040890606</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>56.94961366666666</v>
+      </c>
+      <c r="N18">
+        <v>170.848841</v>
+      </c>
+      <c r="O18">
+        <v>0.9277676101716374</v>
+      </c>
+      <c r="P18">
+        <v>0.9431134766801204</v>
+      </c>
+      <c r="Q18">
+        <v>162.78135872798</v>
+      </c>
+      <c r="R18">
+        <v>1465.03222855182</v>
+      </c>
+      <c r="S18">
+        <v>0.2661647598738353</v>
+      </c>
+      <c r="T18">
+        <v>0.2718024784952288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.85834</v>
+      </c>
+      <c r="H19">
+        <v>8.57502</v>
+      </c>
+      <c r="I19">
+        <v>0.2868873163448707</v>
+      </c>
+      <c r="J19">
+        <v>0.2881970040890606</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.3517459999999999</v>
+      </c>
+      <c r="N19">
+        <v>1.055238</v>
+      </c>
+      <c r="O19">
+        <v>0.005730303066102147</v>
+      </c>
+      <c r="P19">
+        <v>0.005825085924375552</v>
+      </c>
+      <c r="Q19">
+        <v>1.00540966164</v>
+      </c>
+      <c r="R19">
+        <v>9.048686954759999</v>
+      </c>
+      <c r="S19">
+        <v>0.00164395126847683</v>
+      </c>
+      <c r="T19">
+        <v>0.001678772311966391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.85834</v>
+      </c>
+      <c r="H20">
+        <v>8.57502</v>
+      </c>
+      <c r="I20">
+        <v>0.2868873163448707</v>
+      </c>
+      <c r="J20">
+        <v>0.2881970040890606</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.6592749999999999</v>
+      </c>
+      <c r="N20">
+        <v>1.977825</v>
+      </c>
+      <c r="O20">
+        <v>0.01074026585634092</v>
+      </c>
+      <c r="P20">
+        <v>0.01091791668645185</v>
+      </c>
+      <c r="Q20">
+        <v>1.8844321035</v>
+      </c>
+      <c r="R20">
+        <v>16.9598889315</v>
+      </c>
+      <c r="S20">
+        <v>0.003081246048356092</v>
+      </c>
+      <c r="T20">
+        <v>0.003146510879929388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.85834</v>
+      </c>
+      <c r="H21">
+        <v>8.57502</v>
+      </c>
+      <c r="I21">
+        <v>0.2868873163448707</v>
+      </c>
+      <c r="J21">
+        <v>0.2881970040890606</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.9964035</v>
+      </c>
+      <c r="N21">
+        <v>5.992807</v>
+      </c>
+      <c r="O21">
+        <v>0.04881448591690938</v>
+      </c>
+      <c r="P21">
+        <v>0.03308127237950044</v>
+      </c>
+      <c r="Q21">
+        <v>8.56473998019</v>
+      </c>
+      <c r="R21">
+        <v>51.38843988114</v>
+      </c>
+      <c r="S21">
+        <v>0.01400425686345662</v>
+      </c>
+      <c r="T21">
+        <v>0.009533923591226217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.135832</v>
+      </c>
+      <c r="H22">
+        <v>0.271664</v>
+      </c>
+      <c r="I22">
+        <v>0.01363325494999072</v>
+      </c>
+      <c r="J22">
+        <v>0.009130328666154781</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.4264516666666667</v>
+      </c>
+      <c r="N22">
+        <v>1.279355</v>
+      </c>
+      <c r="O22">
+        <v>0.00694733498901017</v>
+      </c>
+      <c r="P22">
+        <v>0.007062248329551709</v>
+      </c>
+      <c r="Q22">
+        <v>0.05792578278666667</v>
+      </c>
+      <c r="R22">
+        <v>0.34755469672</v>
+      </c>
+      <c r="S22">
+        <v>9.471478912816665E-05</v>
+      </c>
+      <c r="T22">
+        <v>6.448064837080968E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.135832</v>
+      </c>
+      <c r="H23">
+        <v>0.271664</v>
+      </c>
+      <c r="I23">
+        <v>0.01363325494999072</v>
+      </c>
+      <c r="J23">
+        <v>0.009130328666154781</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>56.94961366666666</v>
+      </c>
+      <c r="N23">
+        <v>170.848841</v>
+      </c>
+      <c r="O23">
+        <v>0.9277676101716374</v>
+      </c>
+      <c r="P23">
+        <v>0.9431134766801204</v>
+      </c>
+      <c r="Q23">
+        <v>7.735579923570667</v>
+      </c>
+      <c r="R23">
+        <v>46.413479541424</v>
+      </c>
+      <c r="S23">
+        <v>0.01264849236381354</v>
+      </c>
+      <c r="T23">
+        <v>0.008610936011569401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.135832</v>
+      </c>
+      <c r="H24">
+        <v>0.271664</v>
+      </c>
+      <c r="I24">
+        <v>0.01363325494999072</v>
+      </c>
+      <c r="J24">
+        <v>0.009130328666154781</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.3517459999999999</v>
+      </c>
+      <c r="N24">
+        <v>1.055238</v>
+      </c>
+      <c r="O24">
+        <v>0.005730303066102147</v>
+      </c>
+      <c r="P24">
+        <v>0.005825085924375552</v>
+      </c>
+      <c r="Q24">
+        <v>0.047778362672</v>
+      </c>
+      <c r="R24">
+        <v>0.286670176032</v>
+      </c>
+      <c r="S24">
+        <v>7.812268264088412E-05</v>
+      </c>
+      <c r="T24">
+        <v>5.318494899814082E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.135832</v>
+      </c>
+      <c r="H25">
+        <v>0.271664</v>
+      </c>
+      <c r="I25">
+        <v>0.01363325494999072</v>
+      </c>
+      <c r="J25">
+        <v>0.009130328666154781</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.6592749999999999</v>
+      </c>
+      <c r="N25">
+        <v>1.977825</v>
+      </c>
+      <c r="O25">
+        <v>0.01074026585634092</v>
+      </c>
+      <c r="P25">
+        <v>0.01091791668645185</v>
+      </c>
+      <c r="Q25">
+        <v>0.0895506418</v>
+      </c>
+      <c r="R25">
+        <v>0.5373038508</v>
+      </c>
+      <c r="S25">
+        <v>0.0001464247826501762</v>
+      </c>
+      <c r="T25">
+        <v>9.968416769700096E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.135832</v>
+      </c>
+      <c r="H26">
+        <v>0.271664</v>
+      </c>
+      <c r="I26">
+        <v>0.01363325494999072</v>
+      </c>
+      <c r="J26">
+        <v>0.009130328666154781</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.9964035</v>
+      </c>
+      <c r="N26">
+        <v>5.992807</v>
+      </c>
+      <c r="O26">
+        <v>0.04881448591690938</v>
+      </c>
+      <c r="P26">
+        <v>0.03308127237950044</v>
+      </c>
+      <c r="Q26">
+        <v>0.407007480212</v>
+      </c>
+      <c r="R26">
+        <v>1.628029920848</v>
+      </c>
+      <c r="S26">
+        <v>0.0006655003317579573</v>
+      </c>
+      <c r="T26">
+        <v>0.0003020428895194272</v>
       </c>
     </row>
   </sheetData>
